--- a/public/data/soil/soil_table_cote_d_ivoire.xlsx
+++ b/public/data/soil/soil_table_cote_d_ivoire.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -749,25 +749,25 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>49549.6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>20331.1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>204.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62.219</v>
+        <v>84.371</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.156</v>
+        <v>5.758</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -784,25 +784,25 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>167001</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2058.3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>270.907</v>
+        <v>308.507</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.061</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>238037.4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39216</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>711.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>516.217</v>
+        <v>542.832</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.947</v>
+        <v>42.568</v>
       </c>
       <c r="K4" t="n">
-        <v>0.399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -854,25 +854,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>229876.8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1160.7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>456.624</v>
+        <v>454.099</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -889,25 +889,25 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>124795.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>141572.2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>829.7</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>143.44</v>
+        <v>143.127</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>183.021</v>
+        <v>182.805</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -924,25 +924,25 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>235610.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5032.1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>608.6</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>312.242</v>
+        <v>340.053</v>
       </c>
       <c r="I7" t="n">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.774</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -959,28 +959,28 @@
         <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>6878.9</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1188.8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>53632.2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>145159.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.955</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.585</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>23.864</v>
+        <v>35.709</v>
       </c>
       <c r="K8" t="n">
-        <v>65.094</v>
+        <v>60.459</v>
       </c>
     </row>
     <row r="9">
@@ -994,28 +994,28 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>60735.3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>575.7</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>200167.1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>48163.3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>32.561</v>
+        <v>20.601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>97.707</v>
+        <v>122.227</v>
       </c>
       <c r="K9" t="n">
-        <v>23.639</v>
+        <v>17.204</v>
       </c>
     </row>
     <row r="10">
@@ -1029,28 +1029,28 @@
         <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>50818</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1477.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>152111.3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>68103.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>76.143</v>
+        <v>75.233</v>
       </c>
       <c r="I10" t="n">
-        <v>2.355</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>256.948</v>
+        <v>266.054</v>
       </c>
       <c r="K10" t="n">
-        <v>106.036</v>
+        <v>85.155</v>
       </c>
     </row>
     <row r="11">
@@ -1064,28 +1064,28 @@
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>200493.3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110548.3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1753.8</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>282.14</v>
+        <v>283.206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>159.968</v>
+        <v>151.806</v>
       </c>
       <c r="K11" t="n">
-        <v>0.631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1099,28 +1099,28 @@
         <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>9113.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1296.8</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>19130.9</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>187532.9</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.16</v>
+        <v>12.516</v>
       </c>
       <c r="I12" t="n">
-        <v>1.185</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.749</v>
+        <v>6.97</v>
       </c>
       <c r="K12" t="n">
-        <v>226.152</v>
+        <v>235.038</v>
       </c>
     </row>
     <row r="13">
@@ -1134,28 +1134,28 @@
         <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>14248.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>442.2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>229252.5</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41693.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.248</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>205.072</v>
+        <v>213.909</v>
       </c>
       <c r="K13" t="n">
-        <v>34.815</v>
+        <v>33.338</v>
       </c>
     </row>
     <row r="14">
@@ -1169,28 +1169,28 @@
         <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>45475.2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>176645.4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2372.2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>31.256</v>
+        <v>20.486</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>171.576</v>
+        <v>205.695</v>
       </c>
       <c r="K14" t="n">
-        <v>2.273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1204,28 +1204,28 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>10726.8</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>95239.4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>58215.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>11.731</v>
+        <v>6.855</v>
       </c>
       <c r="I15" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>112.936</v>
+        <v>121.619</v>
       </c>
       <c r="K15" t="n">
-        <v>54.071</v>
+        <v>59.809</v>
       </c>
     </row>
     <row r="16">
@@ -1239,28 +1239,28 @@
         <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>193936.4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1325.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>109873.3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10396.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>214.79</v>
+        <v>195.39</v>
       </c>
       <c r="I16" t="n">
-        <v>1.366</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>131.283</v>
+        <v>134.932</v>
       </c>
       <c r="K16" t="n">
-        <v>12.385</v>
+        <v>6.829</v>
       </c>
     </row>
     <row r="17">
@@ -1274,25 +1274,25 @@
         <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>109354.8</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14107.1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>147.627</v>
+        <v>184.798</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>15.922</v>
+        <v>4.726</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1309,25 +1309,25 @@
         <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>222563.7</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>34081.2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>252.779</v>
+        <v>246.224</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>32.886</v>
+        <v>22.89</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1344,25 +1344,25 @@
         <v>54</v>
       </c>
       <c r="D19" t="n">
-        <v>153838.3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24591.1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>244.499</v>
+        <v>335.447</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.544</v>
+        <v>32.554</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1379,28 +1379,28 @@
         <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>106348.2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>577.2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>107407.3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7454</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>237.842</v>
+        <v>237.017</v>
       </c>
       <c r="I20" t="n">
-        <v>1.158</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>209.842</v>
+        <v>192.796</v>
       </c>
       <c r="K20" t="n">
-        <v>10.988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1414,28 +1414,28 @@
         <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>206185.6</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>509.7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>49249.5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4232.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>420.33</v>
+        <v>454.134</v>
       </c>
       <c r="I21" t="n">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>66.118</v>
+        <v>56.934</v>
       </c>
       <c r="K21" t="n">
-        <v>4.229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1449,28 +1449,28 @@
         <v>58</v>
       </c>
       <c r="D22" t="n">
-        <v>95789.2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5934.7</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>251782.9</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>175390.2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>123.604</v>
+        <v>110.476</v>
       </c>
       <c r="I22" t="n">
-        <v>8.239</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>422.755</v>
+        <v>477.024</v>
       </c>
       <c r="K22" t="n">
-        <v>242.623</v>
+        <v>232.305</v>
       </c>
     </row>
     <row r="23">
@@ -1484,28 +1484,28 @@
         <v>59</v>
       </c>
       <c r="D23" t="n">
-        <v>6172.9</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2125.9</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97348</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>217243.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.953</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.696</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.41</v>
+        <v>211.634</v>
       </c>
       <c r="K23" t="n">
-        <v>320.531</v>
+        <v>284.542</v>
       </c>
     </row>
     <row r="24">
@@ -1519,28 +1519,28 @@
         <v>61</v>
       </c>
       <c r="D24" t="n">
-        <v>2580.2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1868.9</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>56281.4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>334553.6</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.669</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.235</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.993</v>
+        <v>36.906</v>
       </c>
       <c r="K24" t="n">
-        <v>269.95</v>
+        <v>287.587</v>
       </c>
     </row>
     <row r="25">
@@ -1554,28 +1554,28 @@
         <v>62</v>
       </c>
       <c r="D25" t="n">
-        <v>4405.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>430.1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>57408.2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>421440.7</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.447</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>50.695</v>
+        <v>48.665</v>
       </c>
       <c r="K25" t="n">
-        <v>389.005</v>
+        <v>404.843</v>
       </c>
     </row>
     <row r="26">
@@ -1589,28 +1589,28 @@
         <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>791.1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>29567.4</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>477288.3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.949</v>
+        <v>10.229</v>
       </c>
       <c r="K26" t="n">
-        <v>372.044</v>
+        <v>392.148</v>
       </c>
     </row>
     <row r="27">
@@ -1624,28 +1624,28 @@
         <v>65</v>
       </c>
       <c r="D27" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>5514.9</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>262483.9</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.071</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.516</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.756</v>
+        <v>325.174</v>
       </c>
     </row>
     <row r="28">
@@ -1659,28 +1659,28 @@
         <v>66</v>
       </c>
       <c r="D28" t="n">
-        <v>13881.8</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4504.3</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>81756.2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>379552.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>10.401</v>
+        <v>0.828</v>
       </c>
       <c r="I28" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.409</v>
+        <v>36.459</v>
       </c>
       <c r="K28" t="n">
-        <v>287.637</v>
+        <v>319.708</v>
       </c>
     </row>
     <row r="29">
@@ -1694,28 +1694,28 @@
         <v>68</v>
       </c>
       <c r="D29" t="n">
-        <v>96541.5</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5394.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>91688.2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>22024.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>76.518</v>
+        <v>82.024</v>
       </c>
       <c r="I29" t="n">
-        <v>4.085</v>
+        <v>1.195</v>
       </c>
       <c r="J29" t="n">
-        <v>56.15</v>
+        <v>66.206</v>
       </c>
       <c r="K29" t="n">
-        <v>15.796</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="30">
@@ -1729,28 +1729,28 @@
         <v>69</v>
       </c>
       <c r="D30" t="n">
-        <v>25462.9</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>22481.9</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>255141.6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>32.281</v>
+        <v>3.753</v>
       </c>
       <c r="I30" t="n">
-        <v>26.926</v>
+        <v>4.982</v>
       </c>
       <c r="J30" t="n">
-        <v>43.495</v>
+        <v>55.932</v>
       </c>
       <c r="K30" t="n">
-        <v>244.739</v>
+        <v>292.866</v>
       </c>
     </row>
     <row r="31">
@@ -1764,28 +1764,28 @@
         <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>95310.3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>14483.2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>52308.6</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106049</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.634</v>
+        <v>84.49</v>
       </c>
       <c r="I31" t="n">
-        <v>11.507</v>
+        <v>5.102</v>
       </c>
       <c r="J31" t="n">
-        <v>32.355</v>
+        <v>58.573</v>
       </c>
       <c r="K31" t="n">
-        <v>83.571</v>
+        <v>77.729</v>
       </c>
     </row>
     <row r="32">
@@ -1799,28 +1799,28 @@
         <v>71</v>
       </c>
       <c r="D32" t="n">
-        <v>1057.9</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>457.1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>12911.8</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>68984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.272</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>18.399</v>
+        <v>13.916</v>
       </c>
       <c r="K32" t="n">
-        <v>77.805</v>
+        <v>76.135</v>
       </c>
     </row>
     <row r="33">
@@ -1834,28 +1834,28 @@
         <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>5422.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>463.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53427.9</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>399835.8</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.367</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.186</v>
+        <v>15.702</v>
       </c>
       <c r="K33" t="n">
-        <v>222.731</v>
+        <v>231.675</v>
       </c>
     </row>
     <row r="34">
@@ -1869,28 +1869,28 @@
         <v>74</v>
       </c>
       <c r="D34" t="n">
-        <v>63224</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3646.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>262764.7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>135772.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>66.416</v>
+        <v>50.901</v>
       </c>
       <c r="I34" t="n">
-        <v>4.291</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>258.864</v>
+        <v>318.881</v>
       </c>
       <c r="K34" t="n">
-        <v>136.11</v>
+        <v>120.106</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_cote_d_ivoire.xlsx
+++ b/public/data/soil/soil_table_cote_d_ivoire.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -749,13 +749,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27499.2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9530.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>166747.4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>257856.6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42663.3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>204225.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>114279.9</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>111287.2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>191783</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>181.9</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>8086.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>24598.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -994,16 +994,16 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6969.1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>31079.9</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3805.3</v>
       </c>
       <c r="H9" t="n">
         <v>20.601</v>
@@ -1029,16 +1029,16 @@
         <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>52135.1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>177540.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>54021.7</v>
       </c>
       <c r="H10" t="n">
         <v>75.233</v>
@@ -1064,13 +1064,13 @@
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>166222.8</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>103537.9</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6254.5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>17213.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>120159.6</v>
       </c>
       <c r="H12" t="n">
         <v>12.516</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124591.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9675.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1169,13 +1169,13 @@
         <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>23508.7</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>142118.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5410.7</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>66639.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25501.6</v>
       </c>
       <c r="H15" t="n">
         <v>6.855</v>
@@ -1239,16 +1239,16 @@
         <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>83454</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>82695.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>16756.9</v>
       </c>
       <c r="H16" t="n">
         <v>195.39</v>
@@ -1274,13 +1274,13 @@
         <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>73443.8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6733.5</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>70723.3</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>16303.8</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>54</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110409</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>16703.6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>129167.8</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>103004.1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>60674.6</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>15049.6</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1449,16 +1449,16 @@
         <v>58</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77983.9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>322233.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>161037.7</v>
       </c>
       <c r="H22" t="n">
         <v>110.476</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>128404.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>179667.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>17746.8</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>90776.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>21108.8</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>158429.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>738.3</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>132773.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2421.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>114861.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>66</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>163.4</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6368.4</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>71494.4</v>
       </c>
       <c r="H28" t="n">
         <v>0.828</v>
@@ -1694,16 +1694,16 @@
         <v>68</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6404.6</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3359.7</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>901.6</v>
       </c>
       <c r="H29" t="n">
         <v>82.024</v>
@@ -1729,16 +1729,16 @@
         <v>69</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>514.2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1187.9</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>21124.3</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>119224.9</v>
       </c>
       <c r="H30" t="n">
         <v>3.753</v>
@@ -1764,16 +1764,16 @@
         <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>24455.3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>193.8</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>22932.3</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>23082.9</v>
       </c>
       <c r="H31" t="n">
         <v>84.49</v>
@@ -1805,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>12049</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>52591.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1834,16 +1834,16 @@
         <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>23988</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>74</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>10029.5</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>141514.1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>23019</v>
       </c>
       <c r="H34" t="n">
         <v>50.901</v>
